--- a/pred_ohlcv/54_21/2019-10-19 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 MIX ohlcv.xlsx
@@ -1120,7 +1120,7 @@
         <v>174830.6992773108</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>174840.6992773108</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>146750.7044773108</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4487.782822689187</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4528.387222689187</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>14221.61277731082</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>14221.61277731082</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1072259.264522689</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1252724.724322689</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1647838.230191541</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1713860.432291541</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1731733.897391541</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1729148.827391541</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2202334.202591541</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2436302.906791541</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2460611.154991542</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2560611.154991542</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2702450.991091541</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2701131.991091541</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2701141.991091541</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2691792.502791542</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2555174.548491542</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2483640.096791542</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4237634.445091542</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4065004.308091542</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-11064142.17209155</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-10897239.70169155</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-12238520.94330456</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-12325161.10720455</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-12229969.86830455</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-17857938.28853789</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-17777109.39253788</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-22236757.63473964</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-22198010.86953964</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-23866606.87183964</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-23866596.87183964</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-25866556.87183964</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-27065546.16133963</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-26542431.52633964</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-26558611.71923963</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-26480369.07013964</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-26693374.92363964</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-26454989.82623964</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-26472602.87433964</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-26472592.87433964</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-26472607.87433964</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-26472593.50463964</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-26466979.16373964</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-26286553.39993964</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-26698666.26943964</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-27640620.45913964</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-27847716.17393964</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-27847696.17393964</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-30990015.36143964</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-30990005.36143964</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-30990016.36143964</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-30990006.36143964</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-31036767.56753964</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-31031085.37463964</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-31031103.37463964</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-31031093.37463964</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-33031093.37463964</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-34791084.37463964</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-34721249.44173964</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-36521270.44173964</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-35829445.31833964</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-35829445.31833964</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-35982189.53843965</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-36395693.27743965</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-36140726.13663965</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-38292813.33863965</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-43956652.80553965</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-43567688.78473965</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-43103689.17593965</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-44963268.94623964</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-43846729.35603964</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-43873193.72473964</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-44692544.19103964</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 MIX ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>187039.6679773108</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>187049.6679773108</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>187035.7533773108</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>174830.6992773108</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>146750.7044773108</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4487.782822689187</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>14221.61277731082</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4528.387222689184</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4518.387222689184</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-23278.38722268918</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-23278.38722268918</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1056827.671622689</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1072259.264522689</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1252724.724322689</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1647838.230191541</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1876161.342891541</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1997490.846991541</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1997490.846991541</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1713860.432291541</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1731733.897391541</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1729148.827391541</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2202334.202591541</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2436302.906791541</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2460611.154991542</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2560611.154991542</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2702450.991091541</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2701131.991091541</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2701141.991091541</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2691792.502791542</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2555174.548491542</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2483640.096791542</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4237634.445091542</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4065004.308091542</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4142937.429391542</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3810353.875691541</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-5412953.398491542</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-5433287.478191542</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-5759460.925191541</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-5736569.941591541</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-5860683.275891542</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-5872935.026191542</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-5872913.026191542</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-5893403.026191542</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-7593383.026191542</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-9393363.026191542</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-11064142.17209155</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-10897239.70169155</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-9630361.576991547</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-9600207.285591546</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-8938995.175191546</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-7824623.265804554</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-8307094.809604554</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-10165482.23170456</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-9913172.231704555</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-12238520.94330456</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-12325161.10720455</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-12229969.86830455</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-17857938.28853789</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-17777109.39253788</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-22236757.63473964</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-22198010.86953964</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-23866606.87183964</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-23866596.87183964</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-25866556.87183964</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-27065546.16133963</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-26542431.52633964</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-26558611.71923963</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-26480369.07013964</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-26693374.92363964</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-26454989.82623964</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-26472602.87433964</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-26472592.87433964</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-26472607.87433964</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-26472593.50463964</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-26466979.16373964</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-26286553.39993964</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-26698666.26943964</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-27640620.45913964</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-27847716.17393964</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-27847696.17393964</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-30990015.36143964</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-30990005.36143964</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-30990016.36143964</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-30990006.36143964</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-31036767.56753964</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-31031085.37463964</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-31031103.37463964</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-31031093.37463964</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-33031093.37463964</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-34791084.37463964</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-34721249.44173964</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-36521270.44173964</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-35829445.31833964</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-35829445.31833964</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-35982189.53843965</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-36395693.27743965</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-36140726.13663965</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-38292813.33863965</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-43956652.80553965</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-43567688.78473965</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-43103689.17593965</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-44963268.94623964</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-43955803.94693964</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-43955803.94693964</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-43955803.94693964</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-43846729.35603964</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-43873193.72473964</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-44517375.35133965</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
